--- a/Hardware/stm32-pi_full/BOM v0.8 Apr 2020.xlsx
+++ b/Hardware/stm32-pi_full/BOM v0.8 Apr 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d4/Documents/github/emonSTM32-db/Hardware/stm32-pi_full/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE125D1-FA8A-5F4B-84F6-AFC26C5F7A56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3647BF19-E753-B54B-931E-9937950B4915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21960" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="126">
   <si>
     <t>Comment</t>
   </si>
@@ -812,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>106</v>
@@ -1696,7 +1696,7 @@
         <v>107</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>106</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>106</v>
@@ -1718,7 +1718,7 @@
         <v>117</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>106</v>
@@ -1729,7 +1729,7 @@
         <v>117</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>106</v>
@@ -1737,10 +1737,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>106</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>106</v>
@@ -1762,7 +1762,7 @@
         <v>110</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>106</v>
@@ -1773,7 +1773,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>106</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>106</v>
@@ -1792,10 +1792,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>106</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>106</v>
@@ -1814,10 +1814,10 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>106</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>106</v>
@@ -1839,7 +1839,7 @@
         <v>120</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>106</v>
@@ -1850,7 +1850,7 @@
         <v>120</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>106</v>
@@ -1861,7 +1861,7 @@
         <v>120</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>106</v>
@@ -1872,7 +1872,7 @@
         <v>120</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>106</v>
@@ -1883,7 +1883,7 @@
         <v>120</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>106</v>
@@ -1894,7 +1894,7 @@
         <v>120</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>106</v>
@@ -1905,7 +1905,7 @@
         <v>120</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>106</v>
@@ -1916,9 +1916,20 @@
         <v>120</v>
       </c>
       <c r="B99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>106</v>
       </c>
     </row>
